--- a/minimal-example/ig/StructureDefinition-Choice1.xlsx
+++ b/minimal-example/ig/StructureDefinition-Choice1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:03:04+00:00</t>
+    <t>2025-05-06T07:07:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/minimal-example/ig/StructureDefinition-Choice1.xlsx
+++ b/minimal-example/ig/StructureDefinition-Choice1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:07:29+00:00</t>
+    <t>2025-05-06T07:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/minimal-example/ig/StructureDefinition-Choice1.xlsx
+++ b/minimal-example/ig/StructureDefinition-Choice1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:36:08+00:00</t>
+    <t>2025-05-06T08:04:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/minimal-example/ig/StructureDefinition-Choice1.xlsx
+++ b/minimal-example/ig/StructureDefinition-Choice1.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T08:04:12+00:00</t>
+    <t>2025-05-06T12:03:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/minimal-example/ig/StructureDefinition-Choice1.xlsx
+++ b/minimal-example/ig/StructureDefinition-Choice1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T12:03:39+00:00</t>
+    <t>2025-05-06T12:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,19 +96,16 @@
     <t>Kind</t>
   </si>
   <si>
-    <t>primitive-type</t>
+    <t>logical</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/string</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -120,7 +117,7 @@
     <t>Derivation</t>
   </si>
   <si>
-    <t>constraint</t>
+    <t>specialization</t>
   </si>
   <si>
     <t>ID</t>
@@ -240,79 +237,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>Primitive Type string</t>
-  </si>
-  <si>
-    <t>A sequence of Unicode characters</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>string.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>string.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
+    <t>Base</t>
   </si>
 </sst>
 </file>
@@ -583,31 +508,31 @@
         <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +542,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -626,17 +551,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="7.21875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.21875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="8.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="7.6796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -657,7 +582,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.91015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -665,516 +590,212 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>70</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="S2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AG2" t="s" s="2">
+      <c r="AH2" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
